--- a/зп.xlsx
+++ b/зп.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\lucky-lady\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="317">
   <si>
     <t>ира</t>
   </si>
@@ -1044,9 +1044,6 @@
   </si>
   <si>
     <t>Химмедсинтез</t>
-  </si>
-  <si>
-    <t>накл на олю</t>
   </si>
 </sst>
 </file>
@@ -3664,111 +3661,27 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3807,6 +3720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3817,22 +3739,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3851,25 +3867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3903,8 +3900,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3916,8 +3914,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3927,12 +3930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6515,6 +6512,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -34587,8 +34585,8 @@
   </sheetPr>
   <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34625,60 +34623,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="733" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="742"/>
-      <c r="C1" s="742"/>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="B1" s="733"/>
+      <c r="C1" s="733"/>
+      <c r="D1" s="733"/>
+      <c r="E1" s="733"/>
+      <c r="F1" s="733"/>
+      <c r="G1" s="733"/>
+      <c r="H1" s="733"/>
+      <c r="I1" s="733"/>
+      <c r="J1" s="733"/>
+      <c r="K1" s="733"/>
+      <c r="L1" s="733"/>
+      <c r="M1" s="733"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="743"/>
-      <c r="B2" s="743"/>
-      <c r="C2" s="743"/>
-      <c r="D2" s="743"/>
-      <c r="E2" s="743"/>
-      <c r="F2" s="743"/>
-      <c r="G2" s="743"/>
-      <c r="H2" s="743"/>
-      <c r="I2" s="743"/>
-      <c r="J2" s="743"/>
-      <c r="K2" s="743"/>
-      <c r="L2" s="743"/>
-      <c r="M2" s="743"/>
+      <c r="A2" s="734"/>
+      <c r="B2" s="734"/>
+      <c r="C2" s="734"/>
+      <c r="D2" s="734"/>
+      <c r="E2" s="734"/>
+      <c r="F2" s="734"/>
+      <c r="G2" s="734"/>
+      <c r="H2" s="734"/>
+      <c r="I2" s="734"/>
+      <c r="J2" s="734"/>
+      <c r="K2" s="734"/>
+      <c r="L2" s="734"/>
+      <c r="M2" s="734"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="739" t="s">
+      <c r="A3" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="682"/>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="683"/>
-      <c r="H3" s="734" t="s">
+      <c r="B3" s="695"/>
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="696"/>
+      <c r="H3" s="741" t="s">
         <v>286</v>
       </c>
-      <c r="I3" s="735"/>
-      <c r="J3" s="735"/>
-      <c r="K3" s="735"/>
-      <c r="L3" s="735"/>
-      <c r="M3" s="736"/>
+      <c r="I3" s="742"/>
+      <c r="J3" s="742"/>
+      <c r="K3" s="742"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="743"/>
       <c r="N3" s="612"/>
-      <c r="O3" s="694" t="s">
+      <c r="O3" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="694"/>
+      <c r="P3" s="722"/>
       <c r="U3" s="768" t="s">
         <v>168</v>
       </c>
@@ -34718,8 +34716,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="732"/>
-      <c r="I4" s="733"/>
+      <c r="H4" s="739"/>
+      <c r="I4" s="740"/>
       <c r="J4" s="606" t="s">
         <v>35</v>
       </c>
@@ -34806,10 +34804,10 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="165"/>
-      <c r="H5" s="737" t="s">
+      <c r="H5" s="744" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="676"/>
+      <c r="I5" s="713"/>
       <c r="J5" s="601">
         <v>1564.38</v>
       </c>
@@ -34897,10 +34895,10 @@
       <c r="G6" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="755" t="s">
+      <c r="H6" s="761" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="756"/>
+      <c r="I6" s="762"/>
       <c r="J6" s="531">
         <v>815.26</v>
       </c>
@@ -35103,9 +35101,11 @@
       <c r="AG8" s="770"/>
     </row>
     <row r="9" spans="1:33" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="331"/>
+      <c r="A9" s="331">
+        <v>43914</v>
+      </c>
       <c r="B9" s="164" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C9" s="281">
         <v>132.30000000000001</v>
@@ -35121,9 +35121,7 @@
         <f t="shared" si="4"/>
         <v>оплачено</v>
       </c>
-      <c r="G9" s="165" t="s">
-        <v>317</v>
-      </c>
+      <c r="G9" s="165"/>
       <c r="H9" s="347"/>
       <c r="I9" s="373"/>
       <c r="J9" s="373"/>
@@ -35673,10 +35671,10 @@
       <c r="X20" s="87"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="763" t="s">
+      <c r="A21" s="765" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="764"/>
+      <c r="B21" s="766"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
         <v>2047.0299999999997</v>
@@ -35714,20 +35712,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="723" t="s">
+      <c r="H22" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="725" t="s">
+      <c r="I22" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="725" t="s">
+      <c r="J22" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="725"/>
-      <c r="L22" s="726" t="s">
+      <c r="K22" s="699"/>
+      <c r="L22" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="727" t="s">
+      <c r="M22" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -35750,16 +35748,16 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="724"/>
-      <c r="I23" s="685"/>
+      <c r="H23" s="698"/>
+      <c r="I23" s="700"/>
       <c r="J23" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="686"/>
-      <c r="M23" s="687"/>
+      <c r="L23" s="702"/>
+      <c r="M23" s="704"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
         <v>73</v>
@@ -36288,18 +36286,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="710" t="s">
+      <c r="H33" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="712" t="s">
+      <c r="I33" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="713"/>
-      <c r="K33" s="714"/>
-      <c r="L33" s="718" t="s">
+      <c r="J33" s="684"/>
+      <c r="K33" s="685"/>
+      <c r="L33" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="719"/>
+      <c r="M33" s="690"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -36321,12 +36319,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="711"/>
-      <c r="I34" s="715"/>
-      <c r="J34" s="716"/>
-      <c r="K34" s="717"/>
-      <c r="L34" s="720"/>
-      <c r="M34" s="721"/>
+      <c r="H34" s="682"/>
+      <c r="I34" s="686"/>
+      <c r="J34" s="687"/>
+      <c r="K34" s="688"/>
+      <c r="L34" s="691"/>
+      <c r="M34" s="692"/>
       <c r="N34" s="1"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="373"/>
@@ -36351,10 +36349,10 @@
       <c r="H35" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="757" t="s">
+      <c r="I35" s="756" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="757"/>
+      <c r="J35" s="756"/>
       <c r="K35" s="618">
         <v>328.13</v>
       </c>
@@ -36388,10 +36386,10 @@
       <c r="H36" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="758" t="s">
+      <c r="I36" s="757" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="758"/>
+      <c r="J36" s="757"/>
       <c r="K36" s="619">
         <v>71.83</v>
       </c>
@@ -36424,10 +36422,10 @@
       <c r="H37" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="758" t="s">
+      <c r="I37" s="757" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="758"/>
+      <c r="J37" s="757"/>
       <c r="K37" s="619">
         <v>5.63</v>
       </c>
@@ -36460,10 +36458,10 @@
       <c r="H38" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="758" t="s">
+      <c r="I38" s="757" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="758"/>
+      <c r="J38" s="757"/>
       <c r="K38" s="619">
         <v>257</v>
       </c>
@@ -36496,10 +36494,10 @@
       <c r="H39" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="759" t="s">
+      <c r="I39" s="758" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="759"/>
+      <c r="J39" s="758"/>
       <c r="K39" s="480">
         <v>654.32000000000005</v>
       </c>
@@ -36532,10 +36530,10 @@
       <c r="H40" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="759" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="761"/>
+      <c r="J40" s="760"/>
       <c r="K40" s="619">
         <v>324.85000000000002</v>
       </c>
@@ -36639,10 +36637,10 @@
       <c r="H43" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="760" t="s">
+      <c r="I43" s="759" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="761"/>
+      <c r="J43" s="760"/>
       <c r="K43" s="619">
         <v>1575.56</v>
       </c>
@@ -36675,10 +36673,10 @@
       <c r="H44" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="760" t="s">
+      <c r="I44" s="759" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="761"/>
+      <c r="J44" s="760"/>
       <c r="K44" s="619">
         <v>10</v>
       </c>
@@ -36711,10 +36709,10 @@
       <c r="H45" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I45" s="677" t="s">
+      <c r="I45" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="677"/>
+      <c r="J45" s="675"/>
       <c r="K45" s="94">
         <f>J5+J6</f>
         <v>2379.6400000000003</v>
@@ -36753,10 +36751,10 @@
         <f>SUM(K35:K45)</f>
         <v>6125.5499999999993</v>
       </c>
-      <c r="K46" s="730" t="s">
+      <c r="K46" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="730"/>
+      <c r="L46" s="676"/>
       <c r="M46" s="542"/>
       <c r="N46" s="1"/>
       <c r="P46" s="373"/>
@@ -36778,10 +36776,10 @@
       <c r="E47" s="373"/>
       <c r="F47" s="373"/>
       <c r="G47" s="373"/>
-      <c r="H47" s="744"/>
-      <c r="I47" s="744"/>
-      <c r="J47" s="744"/>
-      <c r="K47" s="744"/>
+      <c r="H47" s="735"/>
+      <c r="I47" s="735"/>
+      <c r="J47" s="735"/>
+      <c r="K47" s="735"/>
       <c r="L47" s="373"/>
       <c r="M47" s="460"/>
       <c r="N47" s="1"/>
@@ -36797,21 +36795,21 @@
       <c r="Y47" s="373"/>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="742" t="s">
+      <c r="A48" s="733" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="742"/>
-      <c r="C48" s="742"/>
-      <c r="D48" s="742"/>
-      <c r="E48" s="742"/>
-      <c r="F48" s="742"/>
-      <c r="G48" s="742"/>
-      <c r="H48" s="742"/>
-      <c r="I48" s="742"/>
-      <c r="J48" s="742"/>
-      <c r="K48" s="742"/>
-      <c r="L48" s="742"/>
-      <c r="M48" s="742"/>
+      <c r="B48" s="733"/>
+      <c r="C48" s="733"/>
+      <c r="D48" s="733"/>
+      <c r="E48" s="733"/>
+      <c r="F48" s="733"/>
+      <c r="G48" s="733"/>
+      <c r="H48" s="733"/>
+      <c r="I48" s="733"/>
+      <c r="J48" s="733"/>
+      <c r="K48" s="733"/>
+      <c r="L48" s="733"/>
+      <c r="M48" s="733"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="373"/>
@@ -36824,19 +36822,19 @@
       <c r="X48" s="373"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="743"/>
-      <c r="B49" s="743"/>
-      <c r="C49" s="743"/>
-      <c r="D49" s="743"/>
-      <c r="E49" s="743"/>
-      <c r="F49" s="743"/>
-      <c r="G49" s="743"/>
-      <c r="H49" s="743"/>
-      <c r="I49" s="743"/>
-      <c r="J49" s="743"/>
-      <c r="K49" s="743"/>
-      <c r="L49" s="743"/>
-      <c r="M49" s="743"/>
+      <c r="A49" s="734"/>
+      <c r="B49" s="734"/>
+      <c r="C49" s="734"/>
+      <c r="D49" s="734"/>
+      <c r="E49" s="734"/>
+      <c r="F49" s="734"/>
+      <c r="G49" s="734"/>
+      <c r="H49" s="734"/>
+      <c r="I49" s="734"/>
+      <c r="J49" s="734"/>
+      <c r="K49" s="734"/>
+      <c r="L49" s="734"/>
+      <c r="M49" s="734"/>
       <c r="N49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="373"/>
@@ -36849,23 +36847,23 @@
       <c r="X49" s="373"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="739" t="s">
+      <c r="A50" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="682"/>
-      <c r="C50" s="682"/>
-      <c r="D50" s="682"/>
-      <c r="E50" s="682"/>
-      <c r="F50" s="682"/>
-      <c r="G50" s="683"/>
-      <c r="H50" s="740" t="s">
+      <c r="B50" s="695"/>
+      <c r="C50" s="695"/>
+      <c r="D50" s="695"/>
+      <c r="E50" s="695"/>
+      <c r="F50" s="695"/>
+      <c r="G50" s="696"/>
+      <c r="H50" s="736" t="s">
         <v>287</v>
       </c>
-      <c r="I50" s="738"/>
-      <c r="J50" s="738"/>
-      <c r="K50" s="738"/>
-      <c r="L50" s="738"/>
-      <c r="M50" s="741"/>
+      <c r="I50" s="737"/>
+      <c r="J50" s="737"/>
+      <c r="K50" s="737"/>
+      <c r="L50" s="737"/>
+      <c r="M50" s="738"/>
       <c r="N50" s="1"/>
       <c r="S50" s="280"/>
       <c r="T50" s="373"/>
@@ -37398,10 +37396,10 @@
       <c r="P67" s="373"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="763" t="s">
+      <c r="A68" s="765" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="764"/>
+      <c r="B68" s="766"/>
       <c r="C68" s="365">
         <f>SUM(C53:C67)</f>
         <v>2376.2400000000002</v>
@@ -37431,20 +37429,20 @@
       <c r="E69" s="361"/>
       <c r="F69" s="359"/>
       <c r="G69" s="392"/>
-      <c r="H69" s="723" t="s">
+      <c r="H69" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="725" t="s">
+      <c r="I69" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="725" t="s">
+      <c r="J69" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="725"/>
-      <c r="L69" s="726" t="s">
+      <c r="K69" s="699"/>
+      <c r="L69" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="727" t="s">
+      <c r="M69" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N69" s="1"/>
@@ -37459,16 +37457,16 @@
       <c r="E70" s="222"/>
       <c r="F70" s="207"/>
       <c r="G70" s="207"/>
-      <c r="H70" s="724"/>
-      <c r="I70" s="685"/>
+      <c r="H70" s="698"/>
+      <c r="I70" s="700"/>
       <c r="J70" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="686"/>
-      <c r="M70" s="687"/>
+      <c r="L70" s="702"/>
+      <c r="M70" s="704"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
       <c r="P70" s="457"/>
@@ -37658,18 +37656,18 @@
       <c r="E77" s="85"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="710" t="s">
+      <c r="H77" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="712" t="s">
+      <c r="I77" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="713"/>
-      <c r="K77" s="714"/>
-      <c r="L77" s="718" t="s">
+      <c r="J77" s="684"/>
+      <c r="K77" s="685"/>
+      <c r="L77" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="719"/>
+      <c r="M77" s="690"/>
       <c r="N77" s="1"/>
       <c r="O77" s="373"/>
       <c r="P77" s="455"/>
@@ -37686,12 +37684,12 @@
       <c r="E78" s="290"/>
       <c r="F78" s="373"/>
       <c r="G78" s="394"/>
-      <c r="H78" s="711"/>
-      <c r="I78" s="715"/>
-      <c r="J78" s="716"/>
-      <c r="K78" s="717"/>
-      <c r="L78" s="720"/>
-      <c r="M78" s="721"/>
+      <c r="H78" s="682"/>
+      <c r="I78" s="686"/>
+      <c r="J78" s="687"/>
+      <c r="K78" s="688"/>
+      <c r="L78" s="691"/>
+      <c r="M78" s="692"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
@@ -37716,10 +37714,10 @@
       <c r="H79" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I79" s="722" t="s">
+      <c r="I79" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="722"/>
+      <c r="J79" s="693"/>
       <c r="K79" s="618">
         <v>131.25</v>
       </c>
@@ -37751,10 +37749,10 @@
       <c r="H80" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I80" s="680" t="s">
+      <c r="I80" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="680"/>
+      <c r="J80" s="678"/>
       <c r="K80" s="619">
         <v>21.35</v>
       </c>
@@ -37786,10 +37784,10 @@
       <c r="H81" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I81" s="680" t="s">
+      <c r="I81" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="680"/>
+      <c r="J81" s="678"/>
       <c r="K81" s="619">
         <v>2.25</v>
       </c>
@@ -37820,10 +37818,10 @@
       <c r="H82" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I82" s="680" t="s">
+      <c r="I82" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="680"/>
+      <c r="J82" s="678"/>
       <c r="K82" s="619">
         <v>89</v>
       </c>
@@ -37854,10 +37852,10 @@
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="767" t="s">
+      <c r="I83" s="764" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="767"/>
+      <c r="J83" s="764"/>
       <c r="K83" s="480">
         <v>176.5</v>
       </c>
@@ -37891,10 +37889,10 @@
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="760" t="s">
+      <c r="I84" s="759" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="761"/>
+      <c r="J84" s="760"/>
       <c r="K84" s="619">
         <v>55.66</v>
       </c>
@@ -37927,10 +37925,10 @@
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="678" t="s">
+      <c r="I85" s="679" t="s">
         <v>174</v>
       </c>
-      <c r="J85" s="679"/>
+      <c r="J85" s="680"/>
       <c r="K85" s="619">
         <v>257.08999999999997</v>
       </c>
@@ -38000,10 +37998,10 @@
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="678" t="s">
+      <c r="I87" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="679"/>
+      <c r="J87" s="680"/>
       <c r="K87" s="648">
         <v>616.88</v>
       </c>
@@ -38036,10 +38034,10 @@
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="678" t="s">
+      <c r="I88" s="679" t="s">
         <v>53</v>
       </c>
-      <c r="J88" s="679"/>
+      <c r="J88" s="680"/>
       <c r="K88" s="477">
         <v>10</v>
       </c>
@@ -38072,10 +38070,10 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="766" t="s">
+      <c r="I89" s="763" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="766"/>
+      <c r="J89" s="763"/>
       <c r="K89" s="658">
         <f>I52</f>
         <v>500.24</v>
@@ -38111,10 +38109,10 @@
         <f>SUM(K79:K89)</f>
         <v>2007.28</v>
       </c>
-      <c r="K90" s="730" t="s">
+      <c r="K90" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L90" s="730"/>
+      <c r="L90" s="676"/>
       <c r="M90" s="605">
         <v>0</v>
       </c>
@@ -38331,31 +38329,22 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:K34"/>
@@ -38368,22 +38357,31 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:M49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K90:L90"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -40225,7 +40223,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="704" t="s">
+      <c r="A1" s="708" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="705"/>
@@ -40233,15 +40231,15 @@
       <c r="D1" s="705"/>
       <c r="E1" s="705"/>
       <c r="F1" s="705"/>
-      <c r="G1" s="706"/>
+      <c r="G1" s="709"/>
       <c r="H1" s="411"/>
-      <c r="I1" s="701" t="s">
+      <c r="I1" s="706" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="701"/>
-      <c r="K1" s="701"/>
-      <c r="L1" s="701"/>
-      <c r="M1" s="709"/>
+      <c r="J1" s="706"/>
+      <c r="K1" s="706"/>
+      <c r="L1" s="706"/>
+      <c r="M1" s="707"/>
       <c r="N1" s="705" t="s">
         <v>60</v>
       </c>
@@ -40482,7 +40480,7 @@
       <c r="Q6" s="112"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="707">
+      <c r="A7" s="710">
         <v>43648</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -40502,20 +40500,20 @@
       <c r="G7" s="107">
         <v>1162</v>
       </c>
-      <c r="H7" s="684" t="s">
+      <c r="H7" s="714" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="685" t="s">
+      <c r="I7" s="700" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="685" t="s">
+      <c r="J7" s="700" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="685"/>
-      <c r="L7" s="686" t="s">
+      <c r="K7" s="700"/>
+      <c r="L7" s="702" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="687" t="s">
+      <c r="M7" s="704" t="s">
         <v>95</v>
       </c>
       <c r="N7" s="378"/>
@@ -40528,7 +40526,7 @@
       <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="708"/>
+      <c r="A8" s="711"/>
       <c r="B8" s="376" t="s">
         <v>32</v>
       </c>
@@ -40549,16 +40547,16 @@
       <c r="G8" s="107">
         <v>378</v>
       </c>
-      <c r="H8" s="684"/>
-      <c r="I8" s="685"/>
+      <c r="H8" s="714"/>
+      <c r="I8" s="700"/>
       <c r="J8" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="686"/>
-      <c r="M8" s="687"/>
+      <c r="L8" s="702"/>
+      <c r="M8" s="704"/>
       <c r="N8" s="378"/>
       <c r="O8" s="53" t="s">
         <v>67</v>
@@ -40963,10 +40961,10 @@
       <c r="H18" s="43">
         <v>1</v>
       </c>
-      <c r="I18" s="680" t="s">
+      <c r="I18" s="678" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="680"/>
+      <c r="J18" s="678"/>
       <c r="K18" s="376">
         <v>288.75</v>
       </c>
@@ -41010,10 +41008,10 @@
       <c r="H19" s="43">
         <v>2</v>
       </c>
-      <c r="I19" s="680" t="s">
+      <c r="I19" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="680"/>
+      <c r="J19" s="678"/>
       <c r="K19" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -41053,10 +41051,10 @@
       <c r="H20" s="43">
         <v>3</v>
       </c>
-      <c r="I20" s="680" t="s">
+      <c r="I20" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="680"/>
+      <c r="J20" s="678"/>
       <c r="K20" s="376">
         <v>10</v>
       </c>
@@ -41093,10 +41091,10 @@
       <c r="H21" s="43">
         <v>4</v>
       </c>
-      <c r="I21" s="680" t="s">
+      <c r="I21" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="680"/>
+      <c r="J21" s="678"/>
       <c r="K21" s="376">
         <v>5</v>
       </c>
@@ -41122,10 +41120,10 @@
       <c r="H22" s="43">
         <v>5</v>
       </c>
-      <c r="I22" s="680" t="s">
+      <c r="I22" s="678" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="680"/>
+      <c r="J22" s="678"/>
       <c r="K22" s="376">
         <v>4</v>
       </c>
@@ -41148,10 +41146,10 @@
       <c r="H23" s="43">
         <v>6</v>
       </c>
-      <c r="I23" s="680" t="s">
+      <c r="I23" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="680"/>
+      <c r="J23" s="678"/>
       <c r="K23" s="376">
         <v>332.56</v>
       </c>
@@ -41174,10 +41172,10 @@
       <c r="H24" s="43">
         <v>7</v>
       </c>
-      <c r="I24" s="675" t="s">
+      <c r="I24" s="712" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="676"/>
+      <c r="J24" s="713"/>
       <c r="K24" s="376">
         <v>458.46</v>
       </c>
@@ -41200,10 +41198,10 @@
       <c r="H25" s="43">
         <v>8</v>
       </c>
-      <c r="I25" s="675" t="s">
+      <c r="I25" s="712" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="676"/>
+      <c r="J25" s="713"/>
       <c r="K25" s="376">
         <v>4.58</v>
       </c>
@@ -41228,10 +41226,10 @@
       <c r="H26" s="43">
         <v>9</v>
       </c>
-      <c r="I26" s="677" t="s">
+      <c r="I26" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="677"/>
+      <c r="J26" s="675"/>
       <c r="K26" s="376">
         <v>1041.98</v>
       </c>
@@ -41255,10 +41253,10 @@
       <c r="H27" s="43">
         <v>10</v>
       </c>
-      <c r="I27" s="678" t="s">
+      <c r="I27" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="679"/>
+      <c r="J27" s="680"/>
       <c r="K27" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -41283,10 +41281,10 @@
       <c r="H28" s="43">
         <v>11</v>
       </c>
-      <c r="I28" s="678" t="s">
+      <c r="I28" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="679"/>
+      <c r="J28" s="680"/>
       <c r="K28" s="53">
         <v>1730.44</v>
       </c>
@@ -41403,11 +41401,11 @@
       <c r="F34" s="109"/>
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
-      <c r="I34" s="688" t="s">
+      <c r="I34" s="727" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="688"/>
-      <c r="K34" s="688"/>
+      <c r="J34" s="727"/>
+      <c r="K34" s="727"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109"/>
       <c r="N34" s="109"/>
@@ -41426,13 +41424,13 @@
       <c r="F35" s="382"/>
       <c r="G35" s="382"/>
       <c r="H35" s="373"/>
-      <c r="I35" s="689"/>
-      <c r="J35" s="689"/>
-      <c r="K35" s="689"/>
+      <c r="I35" s="728"/>
+      <c r="J35" s="728"/>
+      <c r="K35" s="728"/>
       <c r="L35" s="382"/>
       <c r="M35" s="382"/>
-      <c r="N35" s="699"/>
-      <c r="O35" s="699"/>
+      <c r="N35" s="720"/>
+      <c r="O35" s="720"/>
       <c r="P35" s="373"/>
       <c r="Q35" s="373"/>
       <c r="R35" s="373"/>
@@ -41462,27 +41460,27 @@
       <c r="T36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="700" t="s">
+      <c r="A37" s="721" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="694"/>
-      <c r="C37" s="694"/>
-      <c r="D37" s="694"/>
-      <c r="E37" s="694"/>
-      <c r="F37" s="694"/>
-      <c r="G37" s="694"/>
+      <c r="B37" s="722"/>
+      <c r="C37" s="722"/>
+      <c r="D37" s="722"/>
+      <c r="E37" s="722"/>
+      <c r="F37" s="722"/>
+      <c r="G37" s="722"/>
       <c r="H37" s="108"/>
-      <c r="I37" s="701" t="s">
+      <c r="I37" s="706" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="701"/>
-      <c r="K37" s="701"/>
-      <c r="L37" s="701"/>
-      <c r="M37" s="702"/>
-      <c r="N37" s="694" t="s">
+      <c r="J37" s="706"/>
+      <c r="K37" s="706"/>
+      <c r="L37" s="706"/>
+      <c r="M37" s="723"/>
+      <c r="N37" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="694"/>
+      <c r="O37" s="722"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -41776,20 +41774,20 @@
       <c r="G43" s="168">
         <v>1291</v>
       </c>
-      <c r="H43" s="703" t="s">
+      <c r="H43" s="724" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="685" t="s">
+      <c r="I43" s="700" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="685" t="s">
+      <c r="J43" s="700" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="685"/>
-      <c r="L43" s="686" t="s">
+      <c r="K43" s="700"/>
+      <c r="L43" s="702" t="s">
         <v>93</v>
       </c>
-      <c r="M43" s="695" t="s">
+      <c r="M43" s="715" t="s">
         <v>95</v>
       </c>
       <c r="N43" s="157">
@@ -41832,16 +41830,16 @@
       <c r="G44" s="165">
         <v>612</v>
       </c>
-      <c r="H44" s="684"/>
-      <c r="I44" s="685"/>
+      <c r="H44" s="714"/>
+      <c r="I44" s="700"/>
       <c r="J44" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="686"/>
-      <c r="M44" s="695"/>
+      <c r="L44" s="702"/>
+      <c r="M44" s="715"/>
       <c r="N44" s="52">
         <v>43694</v>
       </c>
@@ -41962,10 +41960,10 @@
         <f>M45-I46-J46-K46+L46</f>
         <v>101446.18</v>
       </c>
-      <c r="N46" s="696" t="s">
+      <c r="N46" s="716" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="697"/>
+      <c r="O46" s="717"/>
       <c r="P46" s="218">
         <f>SUM(P39:P45)</f>
         <v>5413.1299999999992</v>
@@ -42126,10 +42124,10 @@
       <c r="G50" s="166">
         <v>184</v>
       </c>
-      <c r="H50" s="698" t="s">
+      <c r="H50" s="718" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="691"/>
+      <c r="I50" s="719"/>
       <c r="J50" s="214" t="s">
         <v>121</v>
       </c>
@@ -42249,10 +42247,10 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="680" t="s">
+      <c r="I54" s="678" t="s">
         <v>47</v>
       </c>
-      <c r="J54" s="680"/>
+      <c r="J54" s="678"/>
       <c r="K54" s="376">
         <v>288.75</v>
       </c>
@@ -42279,10 +42277,10 @@
       <c r="H55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="680" t="s">
+      <c r="I55" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="680"/>
+      <c r="J55" s="678"/>
       <c r="K55" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -42308,10 +42306,10 @@
       <c r="H56" s="1">
         <v>3</v>
       </c>
-      <c r="I56" s="680" t="s">
+      <c r="I56" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="680"/>
+      <c r="J56" s="678"/>
       <c r="K56" s="376">
         <v>10</v>
       </c>
@@ -42335,10 +42333,10 @@
       <c r="H57" s="1">
         <v>4</v>
       </c>
-      <c r="I57" s="680" t="s">
+      <c r="I57" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="680"/>
+      <c r="J57" s="678"/>
       <c r="K57" s="376">
         <v>5</v>
       </c>
@@ -42362,10 +42360,10 @@
       <c r="H58" s="1">
         <v>5</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="678" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="680"/>
+      <c r="J58" s="678"/>
       <c r="K58" s="376">
         <v>4</v>
       </c>
@@ -42389,10 +42387,10 @@
       <c r="H59" s="1">
         <v>6</v>
       </c>
-      <c r="I59" s="680" t="s">
+      <c r="I59" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="680"/>
+      <c r="J59" s="678"/>
       <c r="K59" s="376">
         <v>332.56</v>
       </c>
@@ -42418,10 +42416,10 @@
       <c r="H60" s="1">
         <v>7</v>
       </c>
-      <c r="I60" s="675" t="s">
+      <c r="I60" s="712" t="s">
         <v>48</v>
       </c>
-      <c r="J60" s="676"/>
+      <c r="J60" s="713"/>
       <c r="K60" s="376">
         <v>458.46</v>
       </c>
@@ -42445,10 +42443,10 @@
       <c r="H61" s="1">
         <v>8</v>
       </c>
-      <c r="I61" s="675" t="s">
+      <c r="I61" s="712" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="676"/>
+      <c r="J61" s="713"/>
       <c r="K61" s="376">
         <v>4.58</v>
       </c>
@@ -42474,10 +42472,10 @@
       <c r="H62" s="1">
         <v>9</v>
       </c>
-      <c r="I62" s="677" t="s">
+      <c r="I62" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J62" s="677"/>
+      <c r="J62" s="675"/>
       <c r="K62" s="376">
         <v>1041.98</v>
       </c>
@@ -42501,10 +42499,10 @@
       <c r="H63" s="1">
         <v>10</v>
       </c>
-      <c r="I63" s="678" t="s">
+      <c r="I63" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="679"/>
+      <c r="J63" s="680"/>
       <c r="K63" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -42531,10 +42529,10 @@
       <c r="H64" s="1">
         <v>11</v>
       </c>
-      <c r="I64" s="678" t="s">
+      <c r="I64" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J64" s="679"/>
+      <c r="J64" s="680"/>
       <c r="K64" s="53">
         <v>1730.44</v>
       </c>
@@ -42598,27 +42596,27 @@
       <c r="S66" s="110"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="692" t="s">
+      <c r="A67" s="725" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="693"/>
-      <c r="C67" s="693"/>
-      <c r="D67" s="693"/>
-      <c r="E67" s="693"/>
-      <c r="F67" s="693"/>
-      <c r="G67" s="693"/>
+      <c r="B67" s="726"/>
+      <c r="C67" s="726"/>
+      <c r="D67" s="726"/>
+      <c r="E67" s="726"/>
+      <c r="F67" s="726"/>
+      <c r="G67" s="726"/>
       <c r="H67" s="109"/>
-      <c r="I67" s="693" t="s">
+      <c r="I67" s="726" t="s">
         <v>136</v>
       </c>
-      <c r="J67" s="693"/>
-      <c r="K67" s="693"/>
-      <c r="L67" s="693"/>
-      <c r="M67" s="693"/>
-      <c r="N67" s="694" t="s">
+      <c r="J67" s="726"/>
+      <c r="K67" s="726"/>
+      <c r="L67" s="726"/>
+      <c r="M67" s="726"/>
+      <c r="N67" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="694"/>
+      <c r="O67" s="722"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -42891,20 +42889,20 @@
       <c r="G73" s="261">
         <v>621</v>
       </c>
-      <c r="H73" s="684" t="s">
+      <c r="H73" s="714" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="685" t="s">
+      <c r="I73" s="700" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="685" t="s">
+      <c r="J73" s="700" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="685"/>
-      <c r="L73" s="686" t="s">
+      <c r="K73" s="700"/>
+      <c r="L73" s="702" t="s">
         <v>93</v>
       </c>
-      <c r="M73" s="686" t="s">
+      <c r="M73" s="702" t="s">
         <v>95</v>
       </c>
       <c r="N73" s="274"/>
@@ -42938,16 +42936,16 @@
         <v>оплачено</v>
       </c>
       <c r="G74" s="165"/>
-      <c r="H74" s="684"/>
-      <c r="I74" s="685"/>
+      <c r="H74" s="714"/>
+      <c r="I74" s="700"/>
       <c r="J74" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K74" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="686"/>
-      <c r="M74" s="686"/>
+      <c r="L74" s="702"/>
+      <c r="M74" s="702"/>
       <c r="N74" s="273"/>
       <c r="O74" s="373"/>
       <c r="P74" s="373"/>
@@ -42995,11 +42993,11 @@
         <v>98779.159999999989</v>
       </c>
       <c r="N75" s="273"/>
-      <c r="O75" s="673" t="s">
+      <c r="O75" s="730" t="s">
         <v>196</v>
       </c>
-      <c r="P75" s="673"/>
-      <c r="Q75" s="673"/>
+      <c r="P75" s="730"/>
+      <c r="Q75" s="730"/>
       <c r="R75" s="373"/>
       <c r="S75" s="422"/>
     </row>
@@ -43043,9 +43041,9 @@
         <v>101446.18</v>
       </c>
       <c r="N76" s="373"/>
-      <c r="O76" s="674"/>
-      <c r="P76" s="674"/>
-      <c r="Q76" s="674"/>
+      <c r="O76" s="731"/>
+      <c r="P76" s="731"/>
+      <c r="Q76" s="731"/>
       <c r="R76" s="373"/>
       <c r="S76" s="422"/>
     </row>
@@ -43192,10 +43190,10 @@
         <v>оплачено</v>
       </c>
       <c r="G80" s="165"/>
-      <c r="H80" s="690" t="s">
+      <c r="H80" s="729" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="691"/>
+      <c r="I80" s="719"/>
       <c r="J80" s="214" t="s">
         <v>121</v>
       </c>
@@ -43493,10 +43491,10 @@
       <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="I89" s="680" t="s">
+      <c r="I89" s="678" t="s">
         <v>47</v>
       </c>
-      <c r="J89" s="680"/>
+      <c r="J89" s="678"/>
       <c r="K89" s="376">
         <v>288.75</v>
       </c>
@@ -43521,10 +43519,10 @@
       <c r="H90" s="1">
         <v>2</v>
       </c>
-      <c r="I90" s="680" t="s">
+      <c r="I90" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J90" s="680"/>
+      <c r="J90" s="678"/>
       <c r="K90" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -43563,10 +43561,10 @@
       <c r="H91" s="1">
         <v>3</v>
       </c>
-      <c r="I91" s="680" t="s">
+      <c r="I91" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J91" s="680"/>
+      <c r="J91" s="678"/>
       <c r="K91" s="376">
         <v>10</v>
       </c>
@@ -43603,10 +43601,10 @@
       <c r="H92" s="1">
         <v>4</v>
       </c>
-      <c r="I92" s="680" t="s">
+      <c r="I92" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J92" s="680"/>
+      <c r="J92" s="678"/>
       <c r="K92" s="376">
         <v>5</v>
       </c>
@@ -43641,8 +43639,8 @@
       <c r="H93" s="1">
         <v>5</v>
       </c>
-      <c r="I93" s="680"/>
-      <c r="J93" s="680"/>
+      <c r="I93" s="678"/>
+      <c r="J93" s="678"/>
       <c r="K93" s="376"/>
       <c r="L93" s="1"/>
       <c r="M93" s="159"/>
@@ -43673,10 +43671,10 @@
       <c r="H94" s="1">
         <v>6</v>
       </c>
-      <c r="I94" s="680" t="s">
+      <c r="I94" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J94" s="680"/>
+      <c r="J94" s="678"/>
       <c r="K94" s="376">
         <v>234.75</v>
       </c>
@@ -43721,10 +43719,10 @@
       <c r="H95" s="1">
         <v>7</v>
       </c>
-      <c r="I95" s="675" t="s">
+      <c r="I95" s="712" t="s">
         <v>48</v>
       </c>
-      <c r="J95" s="676"/>
+      <c r="J95" s="713"/>
       <c r="K95" s="376">
         <v>458.46</v>
       </c>
@@ -43759,10 +43757,10 @@
       <c r="H96" s="1">
         <v>8</v>
       </c>
-      <c r="I96" s="675" t="s">
+      <c r="I96" s="712" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="676"/>
+      <c r="J96" s="713"/>
       <c r="K96" s="376">
         <v>4.58</v>
       </c>
@@ -43797,10 +43795,10 @@
       <c r="H97" s="1">
         <v>9</v>
       </c>
-      <c r="I97" s="677" t="s">
+      <c r="I97" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J97" s="677"/>
+      <c r="J97" s="675"/>
       <c r="K97" s="376">
         <v>1041.98</v>
       </c>
@@ -43835,10 +43833,10 @@
       <c r="H98" s="1">
         <v>10</v>
       </c>
-      <c r="I98" s="678" t="s">
+      <c r="I98" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="679"/>
+      <c r="J98" s="680"/>
       <c r="K98" s="376">
         <v>276</v>
       </c>
@@ -43873,10 +43871,10 @@
       <c r="H99" s="1">
         <v>11</v>
       </c>
-      <c r="I99" s="678" t="s">
+      <c r="I99" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J99" s="679"/>
+      <c r="J99" s="680"/>
       <c r="K99" s="53">
         <v>1730.44</v>
       </c>
@@ -44256,23 +44254,23 @@
       <c r="S112" s="110"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="681" t="s">
+      <c r="A113" s="694" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="682"/>
-      <c r="C113" s="682"/>
-      <c r="D113" s="682"/>
-      <c r="E113" s="682"/>
-      <c r="F113" s="682"/>
-      <c r="G113" s="683"/>
+      <c r="B113" s="695"/>
+      <c r="C113" s="695"/>
+      <c r="D113" s="695"/>
+      <c r="E113" s="695"/>
+      <c r="F113" s="695"/>
+      <c r="G113" s="696"/>
       <c r="H113" s="329"/>
-      <c r="I113" s="682" t="s">
+      <c r="I113" s="695" t="s">
         <v>158</v>
       </c>
-      <c r="J113" s="682"/>
-      <c r="K113" s="682"/>
-      <c r="L113" s="682"/>
-      <c r="M113" s="683"/>
+      <c r="J113" s="695"/>
+      <c r="K113" s="695"/>
+      <c r="L113" s="695"/>
+      <c r="M113" s="696"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -44502,27 +44500,27 @@
       <c r="G119" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="H119" s="684" t="s">
+      <c r="H119" s="714" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="685" t="s">
+      <c r="I119" s="700" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="685" t="s">
+      <c r="J119" s="700" t="s">
         <v>21</v>
       </c>
-      <c r="K119" s="685"/>
-      <c r="L119" s="686" t="s">
+      <c r="K119" s="700"/>
+      <c r="L119" s="702" t="s">
         <v>93</v>
       </c>
-      <c r="M119" s="687" t="s">
+      <c r="M119" s="704" t="s">
         <v>95</v>
       </c>
-      <c r="O119" s="673" t="s">
+      <c r="O119" s="730" t="s">
         <v>197</v>
       </c>
-      <c r="P119" s="673"/>
-      <c r="Q119" s="673"/>
+      <c r="P119" s="730"/>
+      <c r="Q119" s="730"/>
       <c r="R119" s="1"/>
       <c r="S119" s="112"/>
     </row>
@@ -44548,19 +44546,19 @@
         <v>оплачено</v>
       </c>
       <c r="G120" s="318"/>
-      <c r="H120" s="684"/>
-      <c r="I120" s="685"/>
+      <c r="H120" s="714"/>
+      <c r="I120" s="700"/>
       <c r="J120" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K120" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L120" s="686"/>
-      <c r="M120" s="687"/>
-      <c r="O120" s="674"/>
-      <c r="P120" s="674"/>
-      <c r="Q120" s="674"/>
+      <c r="L120" s="702"/>
+      <c r="M120" s="704"/>
+      <c r="O120" s="731"/>
+      <c r="P120" s="731"/>
+      <c r="Q120" s="731"/>
       <c r="R120" s="1"/>
       <c r="S120" s="112"/>
     </row>
@@ -44818,10 +44816,10 @@
         <v>оплачено</v>
       </c>
       <c r="G126" s="318"/>
-      <c r="H126" s="690" t="s">
+      <c r="H126" s="729" t="s">
         <v>122</v>
       </c>
-      <c r="I126" s="691"/>
+      <c r="I126" s="719"/>
       <c r="J126" s="312" t="s">
         <v>121</v>
       </c>
@@ -44945,10 +44943,10 @@
       <c r="H130" s="1">
         <v>1</v>
       </c>
-      <c r="I130" s="680" t="s">
+      <c r="I130" s="678" t="s">
         <v>47</v>
       </c>
-      <c r="J130" s="680"/>
+      <c r="J130" s="678"/>
       <c r="K130" s="376">
         <v>288.75</v>
       </c>
@@ -44975,10 +44973,10 @@
       <c r="H131" s="1">
         <v>2</v>
       </c>
-      <c r="I131" s="680" t="s">
+      <c r="I131" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J131" s="680"/>
+      <c r="J131" s="678"/>
       <c r="K131" s="376">
         <v>60.29</v>
       </c>
@@ -45005,10 +45003,10 @@
       <c r="H132" s="1">
         <v>3</v>
       </c>
-      <c r="I132" s="680" t="s">
+      <c r="I132" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J132" s="680"/>
+      <c r="J132" s="678"/>
       <c r="K132" s="376">
         <v>4.95</v>
       </c>
@@ -45035,10 +45033,10 @@
       <c r="H133" s="1">
         <v>6</v>
       </c>
-      <c r="I133" s="680" t="s">
+      <c r="I133" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J133" s="680"/>
+      <c r="J133" s="678"/>
       <c r="K133" s="376">
         <v>234.75</v>
       </c>
@@ -45065,10 +45063,10 @@
       <c r="H134" s="1">
         <v>8</v>
       </c>
-      <c r="I134" s="675" t="s">
+      <c r="I134" s="712" t="s">
         <v>53</v>
       </c>
-      <c r="J134" s="676"/>
+      <c r="J134" s="713"/>
       <c r="K134" s="376">
         <v>7.01</v>
       </c>
@@ -45095,10 +45093,10 @@
       <c r="H135" s="1">
         <v>9</v>
       </c>
-      <c r="I135" s="677" t="s">
+      <c r="I135" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J135" s="677"/>
+      <c r="J135" s="675"/>
       <c r="K135" s="376">
         <v>1045.72</v>
       </c>
@@ -45125,10 +45123,10 @@
       <c r="H136" s="1">
         <v>10</v>
       </c>
-      <c r="I136" s="678" t="s">
+      <c r="I136" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J136" s="679"/>
+      <c r="J136" s="680"/>
       <c r="K136" s="376">
         <v>176.72</v>
       </c>
@@ -45155,10 +45153,10 @@
       <c r="H137" s="1">
         <v>11</v>
       </c>
-      <c r="I137" s="678" t="s">
+      <c r="I137" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J137" s="679"/>
+      <c r="J137" s="680"/>
       <c r="K137" s="53">
         <v>1730.7</v>
       </c>
@@ -45382,23 +45380,23 @@
       <c r="S147" s="110"/>
     </row>
     <row r="148" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="681" t="s">
+      <c r="A148" s="694" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="682"/>
-      <c r="C148" s="682"/>
-      <c r="D148" s="682"/>
-      <c r="E148" s="682"/>
-      <c r="F148" s="682"/>
-      <c r="G148" s="683"/>
+      <c r="B148" s="695"/>
+      <c r="C148" s="695"/>
+      <c r="D148" s="695"/>
+      <c r="E148" s="695"/>
+      <c r="F148" s="695"/>
+      <c r="G148" s="696"/>
       <c r="H148" s="352"/>
-      <c r="I148" s="682" t="s">
+      <c r="I148" s="695" t="s">
         <v>165</v>
       </c>
-      <c r="J148" s="682"/>
-      <c r="K148" s="682"/>
-      <c r="L148" s="682"/>
-      <c r="M148" s="683"/>
+      <c r="J148" s="695"/>
+      <c r="K148" s="695"/>
+      <c r="L148" s="695"/>
+      <c r="M148" s="696"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -45861,11 +45859,11 @@
       <c r="L163" s="1"/>
       <c r="M163" s="44"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="731" t="s">
+      <c r="P163" s="677" t="s">
         <v>283</v>
       </c>
-      <c r="Q163" s="731"/>
-      <c r="R163" s="731"/>
+      <c r="Q163" s="677"/>
+      <c r="R163" s="677"/>
       <c r="S163" s="112"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -45889,9 +45887,9 @@
       <c r="L164" s="1"/>
       <c r="M164" s="44"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="731"/>
-      <c r="Q164" s="731"/>
-      <c r="R164" s="731"/>
+      <c r="P164" s="677"/>
+      <c r="Q164" s="677"/>
+      <c r="R164" s="677"/>
       <c r="S164" s="112"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -45915,9 +45913,9 @@
       <c r="L165" s="1"/>
       <c r="M165" s="44"/>
       <c r="O165" s="1"/>
-      <c r="P165" s="731"/>
-      <c r="Q165" s="731"/>
-      <c r="R165" s="731"/>
+      <c r="P165" s="677"/>
+      <c r="Q165" s="677"/>
+      <c r="R165" s="677"/>
       <c r="S165" s="112"/>
     </row>
     <row r="166" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45954,20 +45952,20 @@
       <c r="E167" s="361"/>
       <c r="F167" s="359"/>
       <c r="G167" s="392"/>
-      <c r="H167" s="723" t="s">
+      <c r="H167" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I167" s="725" t="s">
+      <c r="I167" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J167" s="725" t="s">
+      <c r="J167" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K167" s="725"/>
-      <c r="L167" s="726" t="s">
+      <c r="K167" s="699"/>
+      <c r="L167" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M167" s="727" t="s">
+      <c r="M167" s="703" t="s">
         <v>95</v>
       </c>
       <c r="O167" s="1"/>
@@ -45984,16 +45982,16 @@
       <c r="E168" s="222"/>
       <c r="F168" s="207"/>
       <c r="G168" s="207"/>
-      <c r="H168" s="724"/>
-      <c r="I168" s="685"/>
+      <c r="H168" s="698"/>
+      <c r="I168" s="700"/>
       <c r="J168" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L168" s="686"/>
-      <c r="M168" s="687"/>
+      <c r="L168" s="702"/>
+      <c r="M168" s="704"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -46204,18 +46202,18 @@
       <c r="E175" s="85"/>
       <c r="F175" s="373"/>
       <c r="G175" s="373"/>
-      <c r="H175" s="710" t="s">
+      <c r="H175" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I175" s="712" t="s">
+      <c r="I175" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J175" s="713"/>
-      <c r="K175" s="714"/>
-      <c r="L175" s="718" t="s">
+      <c r="J175" s="684"/>
+      <c r="K175" s="685"/>
+      <c r="L175" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M175" s="719"/>
+      <c r="M175" s="690"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -46230,12 +46228,12 @@
       <c r="E176" s="290"/>
       <c r="F176" s="373"/>
       <c r="G176" s="394"/>
-      <c r="H176" s="711"/>
-      <c r="I176" s="715"/>
-      <c r="J176" s="716"/>
-      <c r="K176" s="717"/>
-      <c r="L176" s="720"/>
-      <c r="M176" s="721"/>
+      <c r="H176" s="682"/>
+      <c r="I176" s="686"/>
+      <c r="J176" s="687"/>
+      <c r="K176" s="688"/>
+      <c r="L176" s="691"/>
+      <c r="M176" s="692"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -46253,10 +46251,10 @@
       <c r="H177" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I177" s="722" t="s">
+      <c r="I177" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J177" s="722"/>
+      <c r="J177" s="693"/>
       <c r="K177" s="616">
         <v>288.75</v>
       </c>
@@ -46286,10 +46284,10 @@
       <c r="H178" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I178" s="680" t="s">
+      <c r="I178" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J178" s="680"/>
+      <c r="J178" s="678"/>
       <c r="K178" s="606">
         <v>60.19</v>
       </c>
@@ -46302,10 +46300,10 @@
       <c r="N178" s="369" t="s">
         <v>56</v>
       </c>
-      <c r="O178" s="680" t="s">
+      <c r="O178" s="678" t="s">
         <v>47</v>
       </c>
-      <c r="P178" s="680"/>
+      <c r="P178" s="678"/>
       <c r="Q178" s="606">
         <v>28.88</v>
       </c>
@@ -46327,10 +46325,10 @@
       <c r="H179" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I179" s="680" t="s">
+      <c r="I179" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J179" s="680"/>
+      <c r="J179" s="678"/>
       <c r="K179" s="606">
         <v>4.95</v>
       </c>
@@ -46340,10 +46338,10 @@
       <c r="M179" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="O179" s="680" t="s">
+      <c r="O179" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="P179" s="680"/>
+      <c r="P179" s="678"/>
       <c r="Q179" s="606"/>
       <c r="R179" s="288">
         <v>43783</v>
@@ -46363,10 +46361,10 @@
       <c r="H180" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I180" s="680" t="s">
+      <c r="I180" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J180" s="680"/>
+      <c r="J180" s="678"/>
       <c r="K180" s="606">
         <v>234.75</v>
       </c>
@@ -46379,10 +46377,10 @@
       <c r="N180" s="351" t="s">
         <v>56</v>
       </c>
-      <c r="O180" s="680" t="s">
+      <c r="O180" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="P180" s="680"/>
+      <c r="P180" s="678"/>
       <c r="Q180" s="606">
         <v>0.5</v>
       </c>
@@ -46404,10 +46402,10 @@
       <c r="H181" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I181" s="677" t="s">
+      <c r="I181" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J181" s="677"/>
+      <c r="J181" s="675"/>
       <c r="K181" s="610">
         <v>1147.99</v>
       </c>
@@ -46420,10 +46418,10 @@
       <c r="N181" s="351" t="s">
         <v>56</v>
       </c>
-      <c r="O181" s="680" t="s">
+      <c r="O181" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="P181" s="680"/>
+      <c r="P181" s="678"/>
       <c r="Q181" s="606">
         <v>66.75</v>
       </c>
@@ -46445,10 +46443,10 @@
       <c r="H182" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="I182" s="678" t="s">
+      <c r="I182" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J182" s="679"/>
+      <c r="J182" s="680"/>
       <c r="K182" s="606">
         <v>176.72</v>
       </c>
@@ -46459,10 +46457,10 @@
         <v>170</v>
       </c>
       <c r="N182" s="351"/>
-      <c r="O182" s="677" t="s">
+      <c r="O182" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="P182" s="677"/>
+      <c r="P182" s="675"/>
       <c r="Q182" s="610"/>
       <c r="R182" s="308" t="s">
         <v>177</v>
@@ -46497,10 +46495,10 @@
         <v>170</v>
       </c>
       <c r="N183" s="351"/>
-      <c r="O183" s="678" t="s">
+      <c r="O183" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="P183" s="679"/>
+      <c r="P183" s="680"/>
       <c r="Q183" s="606"/>
       <c r="R183" s="288">
         <v>43790</v>
@@ -46556,10 +46554,10 @@
       <c r="H185" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I185" s="678" t="s">
+      <c r="I185" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J185" s="679"/>
+      <c r="J185" s="680"/>
       <c r="K185" s="619">
         <v>1446.11</v>
       </c>
@@ -46592,20 +46590,20 @@
       <c r="H186" s="356" t="s">
         <v>193</v>
       </c>
-      <c r="I186" s="728" t="s">
+      <c r="I186" s="673" t="s">
         <v>181</v>
       </c>
-      <c r="J186" s="729"/>
+      <c r="J186" s="674"/>
       <c r="K186" s="619"/>
       <c r="L186" s="288" t="s">
         <v>182</v>
       </c>
       <c r="M186" s="44"/>
       <c r="N186" s="373"/>
-      <c r="O186" s="678" t="s">
+      <c r="O186" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="P186" s="679"/>
+      <c r="P186" s="680"/>
       <c r="Q186" s="619"/>
       <c r="R186" s="288">
         <v>43783</v>
@@ -46625,10 +46623,10 @@
       <c r="H187" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="I187" s="677" t="s">
+      <c r="I187" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J187" s="677"/>
+      <c r="J187" s="675"/>
       <c r="K187" s="619">
         <f>J152</f>
         <v>2927.79</v>
@@ -46666,10 +46664,10 @@
         <f>SUM(K177:K187)</f>
         <v>6858.8600000000006</v>
       </c>
-      <c r="K188" s="730" t="s">
+      <c r="K188" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L188" s="730"/>
+      <c r="L188" s="676"/>
       <c r="M188" s="367">
         <v>0</v>
       </c>
@@ -46908,78 +46906,21 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="P163:R165"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="I175:K176"/>
-    <mergeCell ref="L175:M176"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="O75:Q76"/>
+    <mergeCell ref="O119:Q120"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
     <mergeCell ref="I137:J137"/>
     <mergeCell ref="I34:K35"/>
     <mergeCell ref="H126:I126"/>
@@ -47002,21 +46943,78 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="O75:Q76"/>
-    <mergeCell ref="O119:Q120"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:K176"/>
+    <mergeCell ref="L175:M176"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="P163:R165"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I185:J185"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -47063,28 +47061,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="739" t="s">
+      <c r="A1" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="734" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="696"/>
+      <c r="H1" s="741" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="736"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="743"/>
       <c r="N1" s="389"/>
-      <c r="O1" s="694" t="s">
+      <c r="O1" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="694"/>
+      <c r="P1" s="722"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -47108,8 +47106,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="732"/>
-      <c r="I2" s="733"/>
+      <c r="H2" s="739"/>
+      <c r="I2" s="740"/>
       <c r="J2" s="384" t="s">
         <v>35</v>
       </c>
@@ -47162,10 +47160,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="737" t="s">
+      <c r="H3" s="744" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="713"/>
       <c r="J3" s="390">
         <v>1458.67</v>
       </c>
@@ -47218,10 +47216,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="737" t="s">
+      <c r="H4" s="744" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="676"/>
+      <c r="I4" s="713"/>
       <c r="J4" s="287">
         <v>1035.6500000000001</v>
       </c>
@@ -47740,20 +47738,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="723" t="s">
+      <c r="H20" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="725" t="s">
+      <c r="I20" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="725" t="s">
+      <c r="J20" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="725"/>
-      <c r="L20" s="726" t="s">
+      <c r="K20" s="699"/>
+      <c r="L20" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="727" t="s">
+      <c r="M20" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -47773,16 +47771,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="724"/>
-      <c r="I21" s="685"/>
+      <c r="H21" s="698"/>
+      <c r="I21" s="700"/>
       <c r="J21" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="686"/>
-      <c r="M21" s="687"/>
+      <c r="L21" s="702"/>
+      <c r="M21" s="704"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -48009,18 +48007,18 @@
       <c r="E28" s="85"/>
       <c r="F28" s="373"/>
       <c r="G28" s="373"/>
-      <c r="H28" s="710" t="s">
+      <c r="H28" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="712" t="s">
+      <c r="I28" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="713"/>
-      <c r="K28" s="714"/>
-      <c r="L28" s="718" t="s">
+      <c r="J28" s="684"/>
+      <c r="K28" s="685"/>
+      <c r="L28" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M28" s="719"/>
+      <c r="M28" s="690"/>
       <c r="N28" s="1"/>
       <c r="P28" s="373"/>
       <c r="Q28" s="373"/>
@@ -48037,12 +48035,12 @@
       <c r="E29" s="290"/>
       <c r="F29" s="373"/>
       <c r="G29" s="394"/>
-      <c r="H29" s="711"/>
-      <c r="I29" s="715"/>
-      <c r="J29" s="716"/>
-      <c r="K29" s="717"/>
-      <c r="L29" s="720"/>
-      <c r="M29" s="721"/>
+      <c r="H29" s="682"/>
+      <c r="I29" s="686"/>
+      <c r="J29" s="687"/>
+      <c r="K29" s="688"/>
+      <c r="L29" s="691"/>
+      <c r="M29" s="692"/>
       <c r="N29" s="1"/>
       <c r="P29" s="373"/>
       <c r="Q29" s="373"/>
@@ -48062,10 +48060,10 @@
       <c r="H30" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="722" t="s">
+      <c r="I30" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="722"/>
+      <c r="J30" s="693"/>
       <c r="K30" s="479">
         <v>288.75</v>
       </c>
@@ -48094,10 +48092,10 @@
       <c r="H31" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="680" t="s">
+      <c r="I31" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="680"/>
+      <c r="J31" s="678"/>
       <c r="K31" s="53">
         <v>60.19</v>
       </c>
@@ -48126,10 +48124,10 @@
       <c r="H32" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I32" s="680" t="s">
+      <c r="I32" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="680"/>
+      <c r="J32" s="678"/>
       <c r="K32" s="53">
         <v>4.95</v>
       </c>
@@ -48158,10 +48156,10 @@
       <c r="H33" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="680" t="s">
+      <c r="I33" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="680"/>
+      <c r="J33" s="678"/>
       <c r="K33" s="53">
         <v>257</v>
       </c>
@@ -48190,10 +48188,10 @@
       <c r="H34" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I34" s="677" t="s">
+      <c r="I34" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="677"/>
+      <c r="J34" s="675"/>
       <c r="K34" s="480">
         <v>922.03</v>
       </c>
@@ -48222,10 +48220,10 @@
       <c r="H35" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="678" t="s">
+      <c r="I35" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="679"/>
+      <c r="J35" s="680"/>
       <c r="K35" s="53">
         <v>315.07</v>
       </c>
@@ -48314,10 +48312,10 @@
       <c r="H38" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="678" t="s">
+      <c r="I38" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="679"/>
+      <c r="J38" s="680"/>
       <c r="K38" s="53">
         <v>1483.76</v>
       </c>
@@ -48346,10 +48344,10 @@
       <c r="H39" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="678" t="s">
+      <c r="I39" s="679" t="s">
         <v>181</v>
       </c>
-      <c r="J39" s="679"/>
+      <c r="J39" s="680"/>
       <c r="K39" s="53">
         <v>10</v>
       </c>
@@ -48376,10 +48374,10 @@
       <c r="H40" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="677" t="s">
+      <c r="I40" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="677"/>
+      <c r="J40" s="675"/>
       <c r="K40" s="53">
         <f>J5</f>
         <v>2494.3200000000002</v>
@@ -48414,10 +48412,10 @@
         <f>SUM(K30:K40)</f>
         <v>6294.5300000000007</v>
       </c>
-      <c r="K41" s="730" t="s">
+      <c r="K41" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="730"/>
+      <c r="L41" s="676"/>
       <c r="M41" s="367">
         <v>0</v>
       </c>
@@ -48437,10 +48435,10 @@
       <c r="E42" s="373"/>
       <c r="F42" s="373"/>
       <c r="G42" s="373"/>
-      <c r="H42" s="744"/>
-      <c r="I42" s="744"/>
-      <c r="J42" s="744"/>
-      <c r="K42" s="744"/>
+      <c r="H42" s="735"/>
+      <c r="I42" s="735"/>
+      <c r="J42" s="735"/>
+      <c r="K42" s="735"/>
       <c r="L42" s="373"/>
       <c r="M42" s="460"/>
       <c r="N42" s="1"/>
@@ -48453,18 +48451,18 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="373"/>
-      <c r="B43" s="742" t="s">
+      <c r="B43" s="733" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="742"/>
-      <c r="D43" s="742"/>
-      <c r="E43" s="742"/>
-      <c r="F43" s="742"/>
-      <c r="G43" s="742"/>
-      <c r="H43" s="742"/>
-      <c r="I43" s="742"/>
-      <c r="J43" s="742"/>
-      <c r="K43" s="742"/>
+      <c r="C43" s="733"/>
+      <c r="D43" s="733"/>
+      <c r="E43" s="733"/>
+      <c r="F43" s="733"/>
+      <c r="G43" s="733"/>
+      <c r="H43" s="733"/>
+      <c r="I43" s="733"/>
+      <c r="J43" s="733"/>
+      <c r="K43" s="733"/>
       <c r="L43" s="373"/>
       <c r="M43" s="460"/>
       <c r="N43" s="1"/>
@@ -48475,16 +48473,16 @@
       <c r="T43" s="373"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="743"/>
-      <c r="C44" s="743"/>
-      <c r="D44" s="743"/>
-      <c r="E44" s="743"/>
-      <c r="F44" s="743"/>
-      <c r="G44" s="743"/>
-      <c r="H44" s="743"/>
-      <c r="I44" s="743"/>
-      <c r="J44" s="743"/>
-      <c r="K44" s="743"/>
+      <c r="B44" s="734"/>
+      <c r="C44" s="734"/>
+      <c r="D44" s="734"/>
+      <c r="E44" s="734"/>
+      <c r="F44" s="734"/>
+      <c r="G44" s="734"/>
+      <c r="H44" s="734"/>
+      <c r="I44" s="734"/>
+      <c r="J44" s="734"/>
+      <c r="K44" s="734"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -48495,23 +48493,23 @@
       <c r="T44" s="373"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="739" t="s">
+      <c r="A45" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="682"/>
-      <c r="C45" s="682"/>
-      <c r="D45" s="682"/>
-      <c r="E45" s="682"/>
-      <c r="F45" s="682"/>
-      <c r="G45" s="683"/>
-      <c r="H45" s="740" t="s">
+      <c r="B45" s="695"/>
+      <c r="C45" s="695"/>
+      <c r="D45" s="695"/>
+      <c r="E45" s="695"/>
+      <c r="F45" s="695"/>
+      <c r="G45" s="696"/>
+      <c r="H45" s="736" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="738"/>
-      <c r="J45" s="738"/>
-      <c r="K45" s="738"/>
-      <c r="L45" s="738"/>
-      <c r="M45" s="741"/>
+      <c r="I45" s="737"/>
+      <c r="J45" s="737"/>
+      <c r="K45" s="737"/>
+      <c r="L45" s="737"/>
+      <c r="M45" s="738"/>
       <c r="N45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="459"/>
@@ -49153,20 +49151,20 @@
       <c r="E64" s="361"/>
       <c r="F64" s="359"/>
       <c r="G64" s="392"/>
-      <c r="H64" s="723" t="s">
+      <c r="H64" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="725" t="s">
+      <c r="I64" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="725" t="s">
+      <c r="J64" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="725"/>
-      <c r="L64" s="726" t="s">
+      <c r="K64" s="699"/>
+      <c r="L64" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M64" s="727" t="s">
+      <c r="M64" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N64" s="1"/>
@@ -49186,16 +49184,16 @@
       <c r="E65" s="222"/>
       <c r="F65" s="207"/>
       <c r="G65" s="207"/>
-      <c r="H65" s="724"/>
-      <c r="I65" s="685"/>
+      <c r="H65" s="698"/>
+      <c r="I65" s="700"/>
       <c r="J65" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="686"/>
-      <c r="M65" s="687"/>
+      <c r="L65" s="702"/>
+      <c r="M65" s="704"/>
       <c r="N65" s="1"/>
       <c r="O65" s="373"/>
       <c r="P65" s="535">
@@ -49356,18 +49354,18 @@
       <c r="E72" s="85"/>
       <c r="F72" s="373"/>
       <c r="G72" s="373"/>
-      <c r="H72" s="710" t="s">
+      <c r="H72" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="712" t="s">
+      <c r="I72" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="713"/>
-      <c r="K72" s="714"/>
-      <c r="L72" s="718" t="s">
+      <c r="J72" s="684"/>
+      <c r="K72" s="685"/>
+      <c r="L72" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M72" s="719"/>
+      <c r="M72" s="690"/>
       <c r="N72" s="1"/>
       <c r="O72" s="373"/>
       <c r="P72" s="534">
@@ -49382,12 +49380,12 @@
       <c r="E73" s="290"/>
       <c r="F73" s="373"/>
       <c r="G73" s="394"/>
-      <c r="H73" s="711"/>
-      <c r="I73" s="715"/>
-      <c r="J73" s="716"/>
-      <c r="K73" s="717"/>
-      <c r="L73" s="720"/>
-      <c r="M73" s="721"/>
+      <c r="H73" s="682"/>
+      <c r="I73" s="686"/>
+      <c r="J73" s="687"/>
+      <c r="K73" s="688"/>
+      <c r="L73" s="691"/>
+      <c r="M73" s="692"/>
       <c r="N73" s="1"/>
       <c r="O73" s="373"/>
       <c r="P73" s="534">
@@ -49413,10 +49411,10 @@
         <f>IF(K74="","не нужно","оплачено")</f>
         <v>оплачено</v>
       </c>
-      <c r="I74" s="722" t="s">
+      <c r="I74" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="722"/>
+      <c r="J74" s="693"/>
       <c r="K74" s="479">
         <v>28.88</v>
       </c>
@@ -49449,10 +49447,10 @@
         <f t="shared" ref="H75:H84" si="6">IF(K75="","не нужно","оплачено")</f>
         <v>не нужно</v>
       </c>
-      <c r="I75" s="680" t="s">
+      <c r="I75" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J75" s="680"/>
+      <c r="J75" s="678"/>
       <c r="K75" s="53"/>
       <c r="L75" s="288">
         <v>43814</v>
@@ -49483,10 +49481,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I76" s="680" t="s">
+      <c r="I76" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J76" s="680"/>
+      <c r="J76" s="678"/>
       <c r="K76" s="53">
         <v>0.5</v>
       </c>
@@ -49519,10 +49517,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I77" s="680" t="s">
+      <c r="I77" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J77" s="680"/>
+      <c r="J77" s="678"/>
       <c r="K77" s="53">
         <v>66.75</v>
       </c>
@@ -49555,10 +49553,10 @@
         <f t="shared" si="6"/>
         <v>не нужно</v>
       </c>
-      <c r="I78" s="677" t="s">
+      <c r="I78" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J78" s="677"/>
+      <c r="J78" s="675"/>
       <c r="K78" s="480"/>
       <c r="L78" s="308" t="s">
         <v>177</v>
@@ -49589,10 +49587,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I79" s="678" t="s">
+      <c r="I79" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J79" s="679"/>
+      <c r="J79" s="680"/>
       <c r="K79" s="53">
         <v>7.75</v>
       </c>
@@ -49695,10 +49693,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I82" s="678" t="s">
+      <c r="I82" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="679"/>
+      <c r="J82" s="680"/>
       <c r="K82" s="53">
         <v>386.79</v>
       </c>
@@ -49731,10 +49729,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I83" s="678" t="s">
+      <c r="I83" s="679" t="s">
         <v>53</v>
       </c>
-      <c r="J83" s="679"/>
+      <c r="J83" s="680"/>
       <c r="K83" s="477">
         <v>10</v>
       </c>
@@ -49765,10 +49763,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I84" s="677" t="s">
+      <c r="I84" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J84" s="677"/>
+      <c r="J84" s="675"/>
       <c r="K84" s="53">
         <v>199.36</v>
       </c>
@@ -49805,10 +49803,10 @@
         <f>SUM(K74:K84)</f>
         <v>987.00000000000011</v>
       </c>
-      <c r="K85" s="730" t="s">
+      <c r="K85" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L85" s="730"/>
+      <c r="L85" s="676"/>
       <c r="M85" s="367">
         <v>0</v>
       </c>
@@ -49824,10 +49822,10 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="738" t="s">
+      <c r="C86" s="737" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="738"/>
+      <c r="D86" s="737"/>
       <c r="P86" s="369">
         <v>274</v>
       </c>
@@ -50150,27 +50148,16 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:K73"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H28:H29"/>
@@ -50187,16 +50174,27 @@
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="I76:J76"/>
     <mergeCell ref="L64:L65"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:K73"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="H42:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
@@ -52223,28 +52221,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="739" t="s">
+      <c r="A1" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="734" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="696"/>
+      <c r="H1" s="741" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="736"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="743"/>
       <c r="N1" s="509"/>
-      <c r="O1" s="694" t="s">
+      <c r="O1" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="694"/>
+      <c r="P1" s="722"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -52268,8 +52266,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="732"/>
-      <c r="I2" s="733"/>
+      <c r="H2" s="739"/>
+      <c r="I2" s="740"/>
       <c r="J2" s="504" t="s">
         <v>35</v>
       </c>
@@ -52322,10 +52320,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="737" t="s">
+      <c r="H3" s="744" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="713"/>
       <c r="J3" s="510">
         <v>2039.02</v>
       </c>
@@ -52377,10 +52375,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="755" t="s">
+      <c r="H4" s="761" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="756"/>
+      <c r="I4" s="762"/>
       <c r="J4" s="531">
         <v>918.57</v>
       </c>
@@ -52891,20 +52889,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="723" t="s">
+      <c r="H20" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="725" t="s">
+      <c r="I20" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="725" t="s">
+      <c r="J20" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="725"/>
-      <c r="L20" s="726" t="s">
+      <c r="K20" s="699"/>
+      <c r="L20" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="727" t="s">
+      <c r="M20" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -52924,16 +52922,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="724"/>
-      <c r="I21" s="685"/>
+      <c r="H21" s="698"/>
+      <c r="I21" s="700"/>
       <c r="J21" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="686"/>
-      <c r="M21" s="687"/>
+      <c r="L21" s="702"/>
+      <c r="M21" s="704"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -53232,18 +53230,18 @@
       <c r="E30" s="85"/>
       <c r="F30" s="373"/>
       <c r="G30" s="373"/>
-      <c r="H30" s="710" t="s">
+      <c r="H30" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="712" t="s">
+      <c r="I30" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="713"/>
-      <c r="K30" s="714"/>
-      <c r="L30" s="718" t="s">
+      <c r="J30" s="684"/>
+      <c r="K30" s="685"/>
+      <c r="L30" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M30" s="719"/>
+      <c r="M30" s="690"/>
       <c r="N30" s="1"/>
       <c r="P30" s="373"/>
       <c r="Q30" s="373"/>
@@ -53260,12 +53258,12 @@
       <c r="E31" s="290"/>
       <c r="F31" s="373"/>
       <c r="G31" s="394"/>
-      <c r="H31" s="711"/>
-      <c r="I31" s="715"/>
-      <c r="J31" s="716"/>
-      <c r="K31" s="717"/>
-      <c r="L31" s="720"/>
-      <c r="M31" s="721"/>
+      <c r="H31" s="682"/>
+      <c r="I31" s="686"/>
+      <c r="J31" s="687"/>
+      <c r="K31" s="688"/>
+      <c r="L31" s="691"/>
+      <c r="M31" s="692"/>
       <c r="N31" s="1"/>
       <c r="P31" s="373"/>
       <c r="Q31" s="373"/>
@@ -53285,10 +53283,10 @@
       <c r="H32" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="757" t="s">
+      <c r="I32" s="756" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="757"/>
+      <c r="J32" s="756"/>
       <c r="K32" s="479">
         <v>288.75</v>
       </c>
@@ -53317,10 +53315,10 @@
       <c r="H33" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="758" t="s">
+      <c r="I33" s="757" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="758"/>
+      <c r="J33" s="757"/>
       <c r="K33" s="53">
         <v>60.19</v>
       </c>
@@ -53349,10 +53347,10 @@
       <c r="H34" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="758" t="s">
+      <c r="I34" s="757" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="758"/>
+      <c r="J34" s="757"/>
       <c r="K34" s="53">
         <v>4.95</v>
       </c>
@@ -53381,10 +53379,10 @@
       <c r="H35" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="758" t="s">
+      <c r="I35" s="757" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="758"/>
+      <c r="J35" s="757"/>
       <c r="K35" s="53">
         <v>257</v>
       </c>
@@ -53413,10 +53411,10 @@
       <c r="H36" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="759" t="s">
+      <c r="I36" s="758" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="759"/>
+      <c r="J36" s="758"/>
       <c r="K36" s="480">
         <v>1101.6300000000001</v>
       </c>
@@ -53445,10 +53443,10 @@
       <c r="H37" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="760" t="s">
+      <c r="I37" s="759" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="761"/>
+      <c r="J37" s="760"/>
       <c r="K37" s="53">
         <v>338.19</v>
       </c>
@@ -53542,10 +53540,10 @@
       <c r="H40" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="759" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="761"/>
+      <c r="J40" s="760"/>
       <c r="K40" s="53">
         <v>1496.82</v>
       </c>
@@ -53574,10 +53572,10 @@
       <c r="H41" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="760" t="s">
+      <c r="I41" s="759" t="s">
         <v>181</v>
       </c>
-      <c r="J41" s="761"/>
+      <c r="J41" s="760"/>
       <c r="K41" s="53">
         <v>10</v>
       </c>
@@ -53606,10 +53604,10 @@
       <c r="H42" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="677" t="s">
+      <c r="I42" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="677"/>
+      <c r="J42" s="675"/>
       <c r="K42" s="53">
         <f>J5</f>
         <v>2957.59</v>
@@ -53644,10 +53642,10 @@
         <f>SUM(K32:K42)</f>
         <v>7448.04</v>
       </c>
-      <c r="K43" s="730" t="s">
+      <c r="K43" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="730"/>
+      <c r="L43" s="676"/>
       <c r="M43" s="542">
         <v>0</v>
       </c>
@@ -53667,10 +53665,10 @@
       <c r="E44" s="373"/>
       <c r="F44" s="373"/>
       <c r="G44" s="373"/>
-      <c r="H44" s="744"/>
-      <c r="I44" s="744"/>
-      <c r="J44" s="744"/>
-      <c r="K44" s="744"/>
+      <c r="H44" s="735"/>
+      <c r="I44" s="735"/>
+      <c r="J44" s="735"/>
+      <c r="K44" s="735"/>
       <c r="L44" s="373"/>
       <c r="M44" s="460"/>
       <c r="N44" s="1"/>
@@ -53683,18 +53681,18 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="373"/>
-      <c r="B45" s="742" t="s">
+      <c r="B45" s="733" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="742"/>
-      <c r="D45" s="742"/>
-      <c r="E45" s="742"/>
-      <c r="F45" s="742"/>
-      <c r="G45" s="742"/>
-      <c r="H45" s="742"/>
-      <c r="I45" s="742"/>
-      <c r="J45" s="742"/>
-      <c r="K45" s="742"/>
+      <c r="C45" s="733"/>
+      <c r="D45" s="733"/>
+      <c r="E45" s="733"/>
+      <c r="F45" s="733"/>
+      <c r="G45" s="733"/>
+      <c r="H45" s="733"/>
+      <c r="I45" s="733"/>
+      <c r="J45" s="733"/>
+      <c r="K45" s="733"/>
       <c r="L45" s="373"/>
       <c r="M45" s="460"/>
       <c r="N45" s="1"/>
@@ -53705,16 +53703,16 @@
       <c r="T45" s="373"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="743"/>
-      <c r="C46" s="743"/>
-      <c r="D46" s="743"/>
-      <c r="E46" s="743"/>
-      <c r="F46" s="743"/>
-      <c r="G46" s="743"/>
-      <c r="H46" s="743"/>
-      <c r="I46" s="743"/>
-      <c r="J46" s="743"/>
-      <c r="K46" s="743"/>
+      <c r="B46" s="734"/>
+      <c r="C46" s="734"/>
+      <c r="D46" s="734"/>
+      <c r="E46" s="734"/>
+      <c r="F46" s="734"/>
+      <c r="G46" s="734"/>
+      <c r="H46" s="734"/>
+      <c r="I46" s="734"/>
+      <c r="J46" s="734"/>
+      <c r="K46" s="734"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -53725,23 +53723,23 @@
       <c r="T46" s="373"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="739" t="s">
+      <c r="A47" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="682"/>
-      <c r="C47" s="682"/>
-      <c r="D47" s="682"/>
-      <c r="E47" s="682"/>
-      <c r="F47" s="682"/>
-      <c r="G47" s="683"/>
-      <c r="H47" s="740" t="s">
+      <c r="B47" s="695"/>
+      <c r="C47" s="695"/>
+      <c r="D47" s="695"/>
+      <c r="E47" s="695"/>
+      <c r="F47" s="695"/>
+      <c r="G47" s="696"/>
+      <c r="H47" s="736" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="738"/>
-      <c r="J47" s="738"/>
-      <c r="K47" s="738"/>
-      <c r="L47" s="738"/>
-      <c r="M47" s="741"/>
+      <c r="I47" s="737"/>
+      <c r="J47" s="737"/>
+      <c r="K47" s="737"/>
+      <c r="L47" s="737"/>
+      <c r="M47" s="738"/>
       <c r="N47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="459"/>
@@ -54214,25 +54212,25 @@
       <c r="E66" s="361"/>
       <c r="F66" s="359"/>
       <c r="G66" s="392"/>
-      <c r="H66" s="723" t="s">
+      <c r="H66" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="725" t="s">
+      <c r="I66" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="725" t="s">
+      <c r="J66" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="725"/>
-      <c r="L66" s="726" t="s">
+      <c r="K66" s="699"/>
+      <c r="L66" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M66" s="727" t="s">
+      <c r="M66" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="373"/>
-      <c r="P66" s="762"/>
+      <c r="P66" s="755"/>
     </row>
     <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="362"/>
@@ -54242,19 +54240,19 @@
       <c r="E67" s="222"/>
       <c r="F67" s="207"/>
       <c r="G67" s="207"/>
-      <c r="H67" s="724"/>
-      <c r="I67" s="685"/>
+      <c r="H67" s="698"/>
+      <c r="I67" s="700"/>
       <c r="J67" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K67" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="686"/>
-      <c r="M67" s="687"/>
+      <c r="L67" s="702"/>
+      <c r="M67" s="704"/>
       <c r="N67" s="1"/>
       <c r="O67" s="373"/>
-      <c r="P67" s="762"/>
+      <c r="P67" s="755"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="345"/>
@@ -54429,18 +54427,18 @@
       <c r="E74" s="85"/>
       <c r="F74" s="373"/>
       <c r="G74" s="373"/>
-      <c r="H74" s="710" t="s">
+      <c r="H74" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="712" t="s">
+      <c r="I74" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J74" s="713"/>
-      <c r="K74" s="714"/>
-      <c r="L74" s="718" t="s">
+      <c r="J74" s="684"/>
+      <c r="K74" s="685"/>
+      <c r="L74" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M74" s="719"/>
+      <c r="M74" s="690"/>
       <c r="N74" s="1"/>
       <c r="O74" s="373"/>
       <c r="P74" s="455"/>
@@ -54455,12 +54453,12 @@
       <c r="E75" s="290"/>
       <c r="F75" s="373"/>
       <c r="G75" s="394"/>
-      <c r="H75" s="711"/>
-      <c r="I75" s="715"/>
-      <c r="J75" s="716"/>
-      <c r="K75" s="717"/>
-      <c r="L75" s="720"/>
-      <c r="M75" s="721"/>
+      <c r="H75" s="682"/>
+      <c r="I75" s="686"/>
+      <c r="J75" s="687"/>
+      <c r="K75" s="688"/>
+      <c r="L75" s="691"/>
+      <c r="M75" s="692"/>
       <c r="N75" s="1"/>
       <c r="O75" s="373"/>
       <c r="P75" s="455"/>
@@ -54483,10 +54481,10 @@
       <c r="H76" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="722" t="s">
+      <c r="I76" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="722"/>
+      <c r="J76" s="693"/>
       <c r="K76" s="479">
         <v>28.88</v>
       </c>
@@ -54516,10 +54514,10 @@
       <c r="H77" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="I77" s="680" t="s">
+      <c r="I77" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J77" s="680"/>
+      <c r="J77" s="678"/>
       <c r="K77" s="53">
         <v>0</v>
       </c>
@@ -54549,10 +54547,10 @@
       <c r="H78" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I78" s="680" t="s">
+      <c r="I78" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J78" s="680"/>
+      <c r="J78" s="678"/>
       <c r="K78" s="53">
         <v>0.5</v>
       </c>
@@ -54582,10 +54580,10 @@
       <c r="H79" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I79" s="680" t="s">
+      <c r="I79" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J79" s="680"/>
+      <c r="J79" s="678"/>
       <c r="K79" s="53">
         <v>89</v>
       </c>
@@ -54615,10 +54613,10 @@
       <c r="H80" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I80" s="677" t="s">
+      <c r="I80" s="675" t="s">
         <v>59</v>
       </c>
-      <c r="J80" s="677"/>
+      <c r="J80" s="675"/>
       <c r="K80" s="480">
         <v>247.96</v>
       </c>
@@ -54648,10 +54646,10 @@
       <c r="H81" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="678" t="s">
+      <c r="I81" s="679" t="s">
         <v>68</v>
       </c>
-      <c r="J81" s="679"/>
+      <c r="J81" s="680"/>
       <c r="K81" s="53">
         <v>69.5</v>
       </c>
@@ -54746,10 +54744,10 @@
       <c r="H84" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I84" s="678" t="s">
+      <c r="I84" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J84" s="679"/>
+      <c r="J84" s="680"/>
       <c r="K84" s="53">
         <v>588.1</v>
       </c>
@@ -54783,10 +54781,10 @@
       <c r="H85" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="678" t="s">
+      <c r="I85" s="679" t="s">
         <v>53</v>
       </c>
-      <c r="J85" s="679"/>
+      <c r="J85" s="680"/>
       <c r="K85" s="477">
         <v>10</v>
       </c>
@@ -54816,10 +54814,10 @@
       <c r="H86" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I86" s="677" t="s">
+      <c r="I86" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="677"/>
+      <c r="J86" s="675"/>
       <c r="K86" s="53">
         <v>703.01</v>
       </c>
@@ -54854,10 +54852,10 @@
         <f>SUM(K76:K86)</f>
         <v>1736.95</v>
       </c>
-      <c r="K87" s="730" t="s">
+      <c r="K87" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L87" s="730"/>
+      <c r="L87" s="676"/>
       <c r="M87" s="367">
         <v>0</v>
       </c>
@@ -55024,27 +55022,20 @@
     <sortCondition ref="P30"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="L74:M75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
     <mergeCell ref="B45:K46"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -55057,20 +55048,27 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:K31"/>
-    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -56888,7 +56886,7 @@
   <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56916,60 +56914,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="733" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="742"/>
-      <c r="C1" s="742"/>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="B1" s="733"/>
+      <c r="C1" s="733"/>
+      <c r="D1" s="733"/>
+      <c r="E1" s="733"/>
+      <c r="F1" s="733"/>
+      <c r="G1" s="733"/>
+      <c r="H1" s="733"/>
+      <c r="I1" s="733"/>
+      <c r="J1" s="733"/>
+      <c r="K1" s="733"/>
+      <c r="L1" s="733"/>
+      <c r="M1" s="733"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="743"/>
-      <c r="B2" s="743"/>
-      <c r="C2" s="743"/>
-      <c r="D2" s="743"/>
-      <c r="E2" s="743"/>
-      <c r="F2" s="743"/>
-      <c r="G2" s="743"/>
-      <c r="H2" s="743"/>
-      <c r="I2" s="743"/>
-      <c r="J2" s="743"/>
-      <c r="K2" s="743"/>
-      <c r="L2" s="743"/>
-      <c r="M2" s="743"/>
+      <c r="A2" s="734"/>
+      <c r="B2" s="734"/>
+      <c r="C2" s="734"/>
+      <c r="D2" s="734"/>
+      <c r="E2" s="734"/>
+      <c r="F2" s="734"/>
+      <c r="G2" s="734"/>
+      <c r="H2" s="734"/>
+      <c r="I2" s="734"/>
+      <c r="J2" s="734"/>
+      <c r="K2" s="734"/>
+      <c r="L2" s="734"/>
+      <c r="M2" s="734"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="739" t="s">
+      <c r="A3" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="682"/>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="683"/>
-      <c r="H3" s="734" t="s">
+      <c r="B3" s="695"/>
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="696"/>
+      <c r="H3" s="741" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="735"/>
-      <c r="J3" s="735"/>
-      <c r="K3" s="735"/>
-      <c r="L3" s="735"/>
-      <c r="M3" s="736"/>
+      <c r="I3" s="742"/>
+      <c r="J3" s="742"/>
+      <c r="K3" s="742"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="743"/>
       <c r="N3" s="555"/>
-      <c r="O3" s="694" t="s">
+      <c r="O3" s="722" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="694"/>
+      <c r="P3" s="722"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="330" t="s">
@@ -56993,8 +56991,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="732"/>
-      <c r="I4" s="733"/>
+      <c r="H4" s="739"/>
+      <c r="I4" s="740"/>
       <c r="J4" s="550" t="s">
         <v>35</v>
       </c>
@@ -57047,10 +57045,10 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="469"/>
-      <c r="H5" s="737" t="s">
+      <c r="H5" s="744" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="676"/>
+      <c r="I5" s="713"/>
       <c r="J5" s="601">
         <v>1633.61</v>
       </c>
@@ -57094,10 +57092,10 @@
         <v>оплачено</v>
       </c>
       <c r="G6" s="469"/>
-      <c r="H6" s="755" t="s">
+      <c r="H6" s="761" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="756"/>
+      <c r="I6" s="762"/>
       <c r="J6" s="531">
         <v>899.78</v>
       </c>
@@ -57441,8 +57439,8 @@
       <c r="M16" s="44"/>
       <c r="N16" s="301"/>
       <c r="O16" s="467"/>
-      <c r="P16" s="765"/>
-      <c r="Q16" s="765"/>
+      <c r="P16" s="767"/>
+      <c r="Q16" s="767"/>
       <c r="R16" s="373"/>
       <c r="S16" s="87"/>
       <c r="T16" s="87"/>
@@ -57560,10 +57558,10 @@
       <c r="T20" s="87"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="763" t="s">
+      <c r="A21" s="765" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="764"/>
+      <c r="B21" s="766"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
         <v>2084.6699999999996</v>
@@ -57597,20 +57595,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="723" t="s">
+      <c r="H22" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="725" t="s">
+      <c r="I22" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="725" t="s">
+      <c r="J22" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="725"/>
-      <c r="L22" s="726" t="s">
+      <c r="K22" s="699"/>
+      <c r="L22" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="727" t="s">
+      <c r="M22" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -57630,16 +57628,16 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="724"/>
-      <c r="I23" s="685"/>
+      <c r="H23" s="698"/>
+      <c r="I23" s="700"/>
       <c r="J23" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="686"/>
-      <c r="M23" s="687"/>
+      <c r="L23" s="702"/>
+      <c r="M23" s="704"/>
       <c r="N23" s="1"/>
       <c r="P23" s="373"/>
       <c r="Q23" s="373"/>
@@ -57973,18 +57971,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="710" t="s">
+      <c r="H33" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="712" t="s">
+      <c r="I33" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="713"/>
-      <c r="K33" s="714"/>
-      <c r="L33" s="718" t="s">
+      <c r="J33" s="684"/>
+      <c r="K33" s="685"/>
+      <c r="L33" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="719"/>
+      <c r="M33" s="690"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -58001,12 +57999,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="711"/>
-      <c r="I34" s="715"/>
-      <c r="J34" s="716"/>
-      <c r="K34" s="717"/>
-      <c r="L34" s="720"/>
-      <c r="M34" s="721"/>
+      <c r="H34" s="682"/>
+      <c r="I34" s="686"/>
+      <c r="J34" s="687"/>
+      <c r="K34" s="688"/>
+      <c r="L34" s="691"/>
+      <c r="M34" s="692"/>
       <c r="N34" s="1"/>
       <c r="P34" s="373"/>
       <c r="Q34" s="373"/>
@@ -58026,10 +58024,10 @@
       <c r="H35" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="757" t="s">
+      <c r="I35" s="756" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="757"/>
+      <c r="J35" s="756"/>
       <c r="K35" s="560">
         <v>328.13</v>
       </c>
@@ -58058,10 +58056,10 @@
       <c r="H36" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="758" t="s">
+      <c r="I36" s="757" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="758"/>
+      <c r="J36" s="757"/>
       <c r="K36" s="561">
         <v>71.83</v>
       </c>
@@ -58090,10 +58088,10 @@
       <c r="H37" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="758" t="s">
+      <c r="I37" s="757" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="758"/>
+      <c r="J37" s="757"/>
       <c r="K37" s="561">
         <v>5.63</v>
       </c>
@@ -58122,10 +58120,10 @@
       <c r="H38" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="758" t="s">
+      <c r="I38" s="757" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="758"/>
+      <c r="J38" s="757"/>
       <c r="K38" s="561">
         <v>257</v>
       </c>
@@ -58154,10 +58152,10 @@
       <c r="H39" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="759" t="s">
+      <c r="I39" s="758" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="759"/>
+      <c r="J39" s="758"/>
       <c r="K39" s="480">
         <v>846.17</v>
       </c>
@@ -58186,10 +58184,10 @@
       <c r="H40" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="759" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="761"/>
+      <c r="J40" s="760"/>
       <c r="K40" s="561">
         <v>333.58</v>
       </c>
@@ -58282,10 +58280,10 @@
       <c r="H43" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="760" t="s">
+      <c r="I43" s="759" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="761"/>
+      <c r="J43" s="760"/>
       <c r="K43" s="561">
         <v>1542</v>
       </c>
@@ -58317,10 +58315,10 @@
       <c r="H44" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="760" t="s">
+      <c r="I44" s="759" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="761"/>
+      <c r="J44" s="760"/>
       <c r="K44" s="561">
         <v>10</v>
       </c>
@@ -58351,10 +58349,10 @@
       <c r="H45" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I45" s="677" t="s">
+      <c r="I45" s="675" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="677"/>
+      <c r="J45" s="675"/>
       <c r="K45" s="561">
         <f>J7</f>
         <v>2533.39</v>
@@ -58389,10 +58387,10 @@
         <f>SUM(K35:K45)</f>
         <v>6446.32</v>
       </c>
-      <c r="K46" s="730" t="s">
+      <c r="K46" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="730"/>
+      <c r="L46" s="676"/>
       <c r="M46" s="542">
         <v>0</v>
       </c>
@@ -58412,10 +58410,10 @@
       <c r="E47" s="373"/>
       <c r="F47" s="373"/>
       <c r="G47" s="373"/>
-      <c r="H47" s="744"/>
-      <c r="I47" s="744"/>
-      <c r="J47" s="744"/>
-      <c r="K47" s="744"/>
+      <c r="H47" s="735"/>
+      <c r="I47" s="735"/>
+      <c r="J47" s="735"/>
+      <c r="K47" s="735"/>
       <c r="L47" s="373"/>
       <c r="M47" s="460"/>
       <c r="N47" s="1"/>
@@ -58427,21 +58425,21 @@
       <c r="U47" s="373"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="742" t="s">
+      <c r="A48" s="733" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="742"/>
-      <c r="C48" s="742"/>
-      <c r="D48" s="742"/>
-      <c r="E48" s="742"/>
-      <c r="F48" s="742"/>
-      <c r="G48" s="742"/>
-      <c r="H48" s="742"/>
-      <c r="I48" s="742"/>
-      <c r="J48" s="742"/>
-      <c r="K48" s="742"/>
-      <c r="L48" s="742"/>
-      <c r="M48" s="742"/>
+      <c r="B48" s="733"/>
+      <c r="C48" s="733"/>
+      <c r="D48" s="733"/>
+      <c r="E48" s="733"/>
+      <c r="F48" s="733"/>
+      <c r="G48" s="733"/>
+      <c r="H48" s="733"/>
+      <c r="I48" s="733"/>
+      <c r="J48" s="733"/>
+      <c r="K48" s="733"/>
+      <c r="L48" s="733"/>
+      <c r="M48" s="733"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="373"/>
@@ -58450,19 +58448,19 @@
       <c r="T48" s="373"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="743"/>
-      <c r="B49" s="743"/>
-      <c r="C49" s="743"/>
-      <c r="D49" s="743"/>
-      <c r="E49" s="743"/>
-      <c r="F49" s="743"/>
-      <c r="G49" s="743"/>
-      <c r="H49" s="743"/>
-      <c r="I49" s="743"/>
-      <c r="J49" s="743"/>
-      <c r="K49" s="743"/>
-      <c r="L49" s="743"/>
-      <c r="M49" s="743"/>
+      <c r="A49" s="734"/>
+      <c r="B49" s="734"/>
+      <c r="C49" s="734"/>
+      <c r="D49" s="734"/>
+      <c r="E49" s="734"/>
+      <c r="F49" s="734"/>
+      <c r="G49" s="734"/>
+      <c r="H49" s="734"/>
+      <c r="I49" s="734"/>
+      <c r="J49" s="734"/>
+      <c r="K49" s="734"/>
+      <c r="L49" s="734"/>
+      <c r="M49" s="734"/>
       <c r="N49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="373"/>
@@ -58471,23 +58469,23 @@
       <c r="T49" s="373"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="739" t="s">
+      <c r="A50" s="732" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="682"/>
-      <c r="C50" s="682"/>
-      <c r="D50" s="682"/>
-      <c r="E50" s="682"/>
-      <c r="F50" s="682"/>
-      <c r="G50" s="683"/>
-      <c r="H50" s="740" t="s">
+      <c r="B50" s="695"/>
+      <c r="C50" s="695"/>
+      <c r="D50" s="695"/>
+      <c r="E50" s="695"/>
+      <c r="F50" s="695"/>
+      <c r="G50" s="696"/>
+      <c r="H50" s="736" t="s">
         <v>279</v>
       </c>
-      <c r="I50" s="738"/>
-      <c r="J50" s="738"/>
-      <c r="K50" s="738"/>
-      <c r="L50" s="738"/>
-      <c r="M50" s="741"/>
+      <c r="I50" s="737"/>
+      <c r="J50" s="737"/>
+      <c r="K50" s="737"/>
+      <c r="L50" s="737"/>
+      <c r="M50" s="738"/>
       <c r="N50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="459"/>
@@ -59016,10 +59014,10 @@
       <c r="P67" s="373"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="763" t="s">
+      <c r="A68" s="765" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="764"/>
+      <c r="B68" s="766"/>
       <c r="C68" s="365">
         <f>SUM(C53:C67)</f>
         <v>1757.9200000000003</v>
@@ -59049,20 +59047,20 @@
       <c r="E69" s="361"/>
       <c r="F69" s="359"/>
       <c r="G69" s="392"/>
-      <c r="H69" s="723" t="s">
+      <c r="H69" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="725" t="s">
+      <c r="I69" s="699" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="725" t="s">
+      <c r="J69" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="725"/>
-      <c r="L69" s="726" t="s">
+      <c r="K69" s="699"/>
+      <c r="L69" s="701" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="727" t="s">
+      <c r="M69" s="703" t="s">
         <v>95</v>
       </c>
       <c r="N69" s="1"/>
@@ -59077,16 +59075,16 @@
       <c r="E70" s="222"/>
       <c r="F70" s="207"/>
       <c r="G70" s="207"/>
-      <c r="H70" s="724"/>
-      <c r="I70" s="685"/>
+      <c r="H70" s="698"/>
+      <c r="I70" s="700"/>
       <c r="J70" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="686"/>
-      <c r="M70" s="687"/>
+      <c r="L70" s="702"/>
+      <c r="M70" s="704"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
       <c r="P70" s="457"/>
@@ -59274,18 +59272,18 @@
       <c r="E77" s="85"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="710" t="s">
+      <c r="H77" s="681" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="712" t="s">
+      <c r="I77" s="683" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="713"/>
-      <c r="K77" s="714"/>
-      <c r="L77" s="718" t="s">
+      <c r="J77" s="684"/>
+      <c r="K77" s="685"/>
+      <c r="L77" s="689" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="719"/>
+      <c r="M77" s="690"/>
       <c r="N77" s="1"/>
       <c r="O77" s="373"/>
       <c r="P77" s="455"/>
@@ -59300,12 +59298,12 @@
       <c r="E78" s="290"/>
       <c r="F78" s="373"/>
       <c r="G78" s="394"/>
-      <c r="H78" s="711"/>
-      <c r="I78" s="715"/>
-      <c r="J78" s="716"/>
-      <c r="K78" s="717"/>
-      <c r="L78" s="720"/>
-      <c r="M78" s="721"/>
+      <c r="H78" s="682"/>
+      <c r="I78" s="686"/>
+      <c r="J78" s="687"/>
+      <c r="K78" s="688"/>
+      <c r="L78" s="691"/>
+      <c r="M78" s="692"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
@@ -59328,10 +59326,10 @@
       <c r="H79" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I79" s="722" t="s">
+      <c r="I79" s="693" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="722"/>
+      <c r="J79" s="693"/>
       <c r="K79" s="603">
         <v>131.25</v>
       </c>
@@ -59361,10 +59359,10 @@
       <c r="H80" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I80" s="680" t="s">
+      <c r="I80" s="678" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="680"/>
+      <c r="J80" s="678"/>
       <c r="K80" s="604">
         <v>21.35</v>
       </c>
@@ -59394,10 +59392,10 @@
       <c r="H81" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I81" s="680" t="s">
+      <c r="I81" s="678" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="680"/>
+      <c r="J81" s="678"/>
       <c r="K81" s="604">
         <v>2.25</v>
       </c>
@@ -59425,10 +59423,10 @@
       <c r="H82" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I82" s="680" t="s">
+      <c r="I82" s="678" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="680"/>
+      <c r="J82" s="678"/>
       <c r="K82" s="604">
         <v>89</v>
       </c>
@@ -59455,10 +59453,10 @@
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="767" t="s">
+      <c r="I83" s="764" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="767"/>
+      <c r="J83" s="764"/>
       <c r="K83" s="480">
         <v>234.83</v>
       </c>
@@ -59488,10 +59486,10 @@
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="760" t="s">
+      <c r="I84" s="759" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="761"/>
+      <c r="J84" s="760"/>
       <c r="K84" s="604">
         <v>56.96</v>
       </c>
@@ -59521,10 +59519,10 @@
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="678" t="s">
+      <c r="I85" s="679" t="s">
         <v>174</v>
       </c>
-      <c r="J85" s="679"/>
+      <c r="J85" s="680"/>
       <c r="K85" s="604">
         <v>257.08999999999997</v>
       </c>
@@ -59585,10 +59583,10 @@
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="678" t="s">
+      <c r="I87" s="679" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="679"/>
+      <c r="J87" s="680"/>
       <c r="K87" s="604">
         <v>588.48</v>
       </c>
@@ -59618,10 +59616,10 @@
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="678" t="s">
+      <c r="I88" s="679" t="s">
         <v>53</v>
       </c>
-      <c r="J88" s="679"/>
+      <c r="J88" s="680"/>
       <c r="K88" s="477">
         <v>10</v>
       </c>
@@ -59651,10 +59649,10 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="766" t="s">
+      <c r="I89" s="763" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="766"/>
+      <c r="J89" s="763"/>
       <c r="K89" s="598">
         <v>529.24</v>
       </c>
@@ -59686,10 +59684,10 @@
         <f>SUM(K79:K89)</f>
         <v>1920.45</v>
       </c>
-      <c r="K90" s="730" t="s">
+      <c r="K90" s="676" t="s">
         <v>180</v>
       </c>
-      <c r="L90" s="730"/>
+      <c r="L90" s="676"/>
       <c r="M90" s="605">
         <v>0</v>
       </c>
@@ -59883,35 +59881,14 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
@@ -59926,14 +59903,35 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:M49"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -61823,10 +61821,10 @@
       <c r="A4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="693" t="s">
+      <c r="B4" s="726" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="693"/>
+      <c r="C4" s="726"/>
       <c r="D4" s="597" t="s">
         <v>271</v>
       </c>
@@ -61839,10 +61837,10 @@
       <c r="G4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="693" t="s">
+      <c r="H4" s="726" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="726"/>
       <c r="J4" s="597" t="s">
         <v>273</v>
       </c>
